--- a/Triclosan.xlsx
+++ b/Triclosan.xlsx
@@ -458,7 +458,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>N-(Phthalimidomethyl)acrylamide</t>
+          <t>Saniconcentrate™</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">

--- a/Triclosan.xlsx
+++ b/Triclosan.xlsx
@@ -475,7 +475,18 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>PS (Polystyrene)
+PET
+PA, Nylon
+PMMA
+PVC
+ABS
+PP
+Healthcare / Medical
+Injection molding - thermoplastics &gt; Blow molding
+Extrusion &gt; Blow molding
+Safety, regulation &amp; environment
+Mechanical/ physical performance</t>
         </is>
       </c>
     </row>
